--- a/BASE_DE_DATOS - TAREAS/01 Hoja de Ejercicios de Formulas.xlsx
+++ b/BASE_DE_DATOS - TAREAS/01 Hoja de Ejercicios de Formulas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raúl\OneDrive\Escritorio\VARIOS\DIGITAL-DEPORTIVO\curso-Excel-Python-IA\BASE_DE_DATOS - TAREAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{426D598B-3AC1-4930-88FC-84D046CCDA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12281181-329C-4878-B0E8-E970B62F6290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3648F167-93D0-41CA-A59A-EFE62C714478}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="112">
   <si>
     <t>Fórmula</t>
   </si>
@@ -728,13 +728,19 @@
   </si>
   <si>
     <t>Clasificacion</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t># Aprobados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,8 +824,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +844,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -857,7 +877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -900,6 +920,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -971,633 +997,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1693,6 +1092,633 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1818,12 +1844,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{79E9309C-74DB-4C81-9207-835E475C1ECC}" name="Tabla7" displayName="Tabla7" ref="A1:E7" totalsRowShown="0" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{79E9309C-74DB-4C81-9207-835E475C1ECC}" name="Tabla7" displayName="Tabla7" ref="A1:E7" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:E7" xr:uid="{79E9309C-74DB-4C81-9207-835E475C1ECC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1832,11 +1854,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{57EEEC9D-4BFB-4C45-BD7E-25F9F8196C8D}" name="Fórmula" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{F916450D-8189-4770-B818-6EE2A1E90428}" name="Descripción" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{91E22CA9-AFBC-4AFA-AE04-A161C30D883E}" name="Ejemplo" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{61C11600-F1F2-449B-A01F-C991A2FFEA92}" name="Ejercicio propuesto" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{DF8E3EAF-D2F1-4ACE-B23D-A0F965D558E4}" name="Ir" dataDxfId="31" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="1" xr3:uid="{57EEEC9D-4BFB-4C45-BD7E-25F9F8196C8D}" name="Fórmula" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{F916450D-8189-4770-B818-6EE2A1E90428}" name="Descripción" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{91E22CA9-AFBC-4AFA-AE04-A161C30D883E}" name="Ejemplo" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{61C11600-F1F2-449B-A01F-C991A2FFEA92}" name="Ejercicio propuesto" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{DF8E3EAF-D2F1-4ACE-B23D-A0F965D558E4}" name="Ir" dataDxfId="6" dataCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1899,86 +1921,86 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FB197277-C30D-4853-9D40-95379E854EB5}" name="Tabla2" displayName="Tabla2" ref="A3:C8" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FB197277-C30D-4853-9D40-95379E854EB5}" name="Tabla2" displayName="Tabla2" ref="A3:C8" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A3:C8" xr:uid="{FB197277-C30D-4853-9D40-95379E854EB5}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{22C6931E-4AC1-449E-B9FD-20CD66B97EF3}" name="Nombre" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{7E9E54F0-D2D2-426C-9516-72C8C4339A3E}" name="Edad" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{D59C59D4-0123-4B3D-9CC7-269C87B68C05}" name="Clasificacion" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{22C6931E-4AC1-449E-B9FD-20CD66B97EF3}" name="Nombre" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{7E9E54F0-D2D2-426C-9516-72C8C4339A3E}" name="Edad" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{D59C59D4-0123-4B3D-9CC7-269C87B68C05}" name="Clasificacion" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C4804A71-EA1A-4DEC-BE76-41E234DAB395}" name="Tabla3" displayName="Tabla3" ref="A15:C20" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C4804A71-EA1A-4DEC-BE76-41E234DAB395}" name="Tabla3" displayName="Tabla3" ref="A15:C20" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A15:C20" xr:uid="{C4804A71-EA1A-4DEC-BE76-41E234DAB395}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F062BCBD-E005-4790-A922-03F6DBAC65D4}" name="Nombre" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{7C4E4025-BF0E-4BA7-A89A-138C5551A879}" name="Edad" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{AF8AC246-6BC8-4FC8-B9AE-B867A86E12F2}" name="Clasificacion" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{F062BCBD-E005-4790-A922-03F6DBAC65D4}" name="Nombre" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{7C4E4025-BF0E-4BA7-A89A-138C5551A879}" name="Edad" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{AF8AC246-6BC8-4FC8-B9AE-B867A86E12F2}" name="Clasificacion" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BE10FD15-9EAD-41BF-B185-E4A273C3A9AB}" name="Tabla4" displayName="Tabla4" ref="A27:A33" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BE10FD15-9EAD-41BF-B185-E4A273C3A9AB}" name="Tabla4" displayName="Tabla4" ref="A27:A33" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A27:A33" xr:uid="{BE10FD15-9EAD-41BF-B185-E4A273C3A9AB}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CE3E4F7F-565A-4D08-8CA1-63DBE173E78F}" name="Calificación" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{CE3E4F7F-565A-4D08-8CA1-63DBE173E78F}" name="Calificación" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A7479B7C-45BA-4020-96FE-7A8E5723282E}" name="Tabla5" displayName="Tabla5" ref="A40:B45" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A7479B7C-45BA-4020-96FE-7A8E5723282E}" name="Tabla5" displayName="Tabla5" ref="A40:B45" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A40:B45" xr:uid="{A7479B7C-45BA-4020-96FE-7A8E5723282E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F84FF27B-F1E6-4C66-AE33-E4A1D2D56C16}" name="Nombre" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{6B694B88-EA5A-475B-B078-47C93B617A14}" name="Estado" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{F84FF27B-F1E6-4C66-AE33-E4A1D2D56C16}" name="Nombre" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{6B694B88-EA5A-475B-B078-47C93B617A14}" name="Estado" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{79C486DC-B85F-4E3F-BE31-DE0FBF09C495}" name="Tabla6" displayName="Tabla6" ref="A52:C57" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{79C486DC-B85F-4E3F-BE31-DE0FBF09C495}" name="Tabla6" displayName="Tabla6" ref="A52:C57" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A52:C57" xr:uid="{79C486DC-B85F-4E3F-BE31-DE0FBF09C495}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AE379C3C-377B-423D-8F89-D38150A13CED}" name="Nombre" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{789CB6A3-70B9-4769-A7C5-8D47E2236BC2}" name="Puntaje" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2995EB50-7E94-4770-B748-49BB13938938}" name="Estado" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{AE379C3C-377B-423D-8F89-D38150A13CED}" name="Nombre" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{789CB6A3-70B9-4769-A7C5-8D47E2236BC2}" name="Puntaje" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{2995EB50-7E94-4770-B748-49BB13938938}" name="Estado" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E461AFC4-6725-4193-917F-B77FADFB1BD9}" name="Tabla14" displayName="Tabla14" ref="A64:A70" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E461AFC4-6725-4193-917F-B77FADFB1BD9}" name="Tabla14" displayName="Tabla14" ref="A64:A70" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A64:A70" xr:uid="{E461AFC4-6725-4193-917F-B77FADFB1BD9}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{3BED299D-C663-412F-A629-97DCA42DF1C5}" name="Asistencia" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{3BED299D-C663-412F-A629-97DCA42DF1C5}" name="Asistencia" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2338,7 +2360,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2489,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD536257-F3BE-4F48-BA2B-409073781382}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2655,15 +2677,20 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="26" spans="1:8" ht="15" thickBot="1"/>
+    <row r="27" spans="1:8" ht="15" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>85</v>
       </c>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
@@ -2704,12 +2731,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="39" spans="1:8" ht="15" thickBot="1"/>
+    <row r="40" spans="1:8" ht="15" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2719,6 +2750,7 @@
       <c r="B41" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">

--- a/BASE_DE_DATOS - TAREAS/01 Hoja de Ejercicios de Formulas.xlsx
+++ b/BASE_DE_DATOS - TAREAS/01 Hoja de Ejercicios de Formulas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29504"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raúl\OneDrive\Escritorio\VARIOS\DIGITAL-DEPORTIVO\curso-Excel-Python-IA\BASE_DE_DATOS - TAREAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12281181-329C-4878-B0E8-E970B62F6290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495511B0-5D6E-48E2-9034-66C30D4B703A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3648F167-93D0-41CA-A59A-EFE62C714478}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{3648F167-93D0-41CA-A59A-EFE62C714478}"/>
   </bookViews>
   <sheets>
     <sheet name="FORMULAS LOGICAS" sheetId="1" r:id="rId1"/>
@@ -740,7 +740,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,13 +798,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -842,14 +835,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -877,7 +870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -905,26 +898,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1802,7 +1792,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>34290</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1860,7 +1850,7 @@
     <tableColumn id="4" xr3:uid="{61C11600-F1F2-449B-A01F-C991A2FFEA92}" name="Ejercicio propuesto" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{DF8E3EAF-D2F1-4ACE-B23D-A0F965D558E4}" name="Ir" dataDxfId="6" dataCellStyle="Hipervínculo"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1876,7 +1866,7 @@
     <tableColumn id="2" xr3:uid="{23345E3D-BFE1-4FBD-813F-6F6DF0A0B53C}" name="Calificación"/>
     <tableColumn id="3" xr3:uid="{A5739064-9440-43E8-B480-EF51C025F64F}" name="Estado"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1888,7 +1878,7 @@
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{814126FF-4566-46F2-BA52-24969CDA8533}" name="Calificación"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1904,7 +1894,7 @@
     <tableColumn id="2" xr3:uid="{1CBA7CA0-B2DA-4DE8-8D96-A91A13D51A55}" name="Calificación"/>
     <tableColumn id="3" xr3:uid="{37B10E08-69D6-424F-8A66-61E47A88F6B1}" name="Estado"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1916,7 +1906,7 @@
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{5A24CA2C-FE69-4FAD-84AD-3303B02B010F}" name="Calificación"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1932,7 +1922,7 @@
     <tableColumn id="2" xr3:uid="{7E9E54F0-D2D2-426C-9516-72C8C4339A3E}" name="Edad" dataDxfId="33"/>
     <tableColumn id="3" xr3:uid="{D59C59D4-0123-4B3D-9CC7-269C87B68C05}" name="Clasificacion" dataDxfId="32"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1948,7 +1938,7 @@
     <tableColumn id="2" xr3:uid="{7C4E4025-BF0E-4BA7-A89A-138C5551A879}" name="Edad" dataDxfId="28"/>
     <tableColumn id="3" xr3:uid="{AF8AC246-6BC8-4FC8-B9AE-B867A86E12F2}" name="Clasificacion" dataDxfId="27"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1960,7 +1950,7 @@
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{CE3E4F7F-565A-4D08-8CA1-63DBE173E78F}" name="Calificación" dataDxfId="24"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1974,7 +1964,7 @@
     <tableColumn id="1" xr3:uid="{F84FF27B-F1E6-4C66-AE33-E4A1D2D56C16}" name="Nombre" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{6B694B88-EA5A-475B-B078-47C93B617A14}" name="Estado" dataDxfId="20"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1990,7 +1980,7 @@
     <tableColumn id="2" xr3:uid="{789CB6A3-70B9-4769-A7C5-8D47E2236BC2}" name="Puntaje" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{2995EB50-7E94-4770-B748-49BB13938938}" name="Estado" dataDxfId="15"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2002,7 +1992,7 @@
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{3BED299D-C663-412F-A629-97DCA42DF1C5}" name="Asistencia" dataDxfId="12"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2022,7 +2012,7 @@
     <tableColumn id="4" xr3:uid="{9FCC8434-C7DF-4A71-B1F8-752DFCE1C22E}" name="Ejercicio propuesto" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{0D523086-F5DE-4BF7-98AD-ECD1E874275E}" name="Ir" dataDxfId="0" dataCellStyle="Hipervínculo"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2036,7 +2026,7 @@
     <tableColumn id="1" xr3:uid="{3375F7BE-973B-4F7E-8A7D-0615784D9F88}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{FC9F818E-74FC-4572-A2B7-9110B87956DB}" name="Calificación"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2360,7 +2350,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2511,8 +2501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD536257-F3BE-4F48-BA2B-409073781382}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2536,7 +2526,7 @@
       <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2610,7 +2600,7 @@
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2690,7 +2680,7 @@
       <c r="A28" s="2">
         <v>85</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2">
@@ -2750,7 +2740,7 @@
       <c r="B41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="17"/>
+      <c r="D41" s="15"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
@@ -2814,57 +2804,57 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="14">
         <v>72</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="14">
         <v>65</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="14">
         <v>80</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="14">
         <v>90</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="14">
         <v>68</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2953,7 +2943,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2963,7 +2953,7 @@
     <col min="5" max="5" width="4.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2976,12 +2966,12 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2998,7 +2988,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3015,7 +3005,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3032,7 +3022,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3049,7 +3039,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3066,7 +3056,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3083,7 +3073,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3121,8 +3111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7967EA-D60F-411F-975E-EE77C29DD1E4}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/BASE_DE_DATOS - TAREAS/01 Hoja de Ejercicios de Formulas.xlsx
+++ b/BASE_DE_DATOS - TAREAS/01 Hoja de Ejercicios de Formulas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29509"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raúl\OneDrive\Escritorio\VARIOS\DIGITAL-DEPORTIVO\curso-Excel-Python-IA\BASE_DE_DATOS - TAREAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495511B0-5D6E-48E2-9034-66C30D4B703A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7987A51-B83A-49FC-AAFA-2C006DACFF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{3648F167-93D0-41CA-A59A-EFE62C714478}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3648F167-93D0-41CA-A59A-EFE62C714478}"/>
   </bookViews>
   <sheets>
     <sheet name="FORMULAS LOGICAS" sheetId="1" r:id="rId1"/>
@@ -987,6 +987,633 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1082,633 +1709,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1835,7 +1835,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{79E9309C-74DB-4C81-9207-835E475C1ECC}" name="Tabla7" displayName="Tabla7" ref="A1:E7" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{79E9309C-74DB-4C81-9207-835E475C1ECC}" name="Tabla7" displayName="Tabla7" ref="A1:E7" totalsRowShown="0" headerRowDxfId="36">
   <autoFilter ref="A1:E7" xr:uid="{79E9309C-74DB-4C81-9207-835E475C1ECC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1844,11 +1844,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{57EEEC9D-4BFB-4C45-BD7E-25F9F8196C8D}" name="Fórmula" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{F916450D-8189-4770-B818-6EE2A1E90428}" name="Descripción" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{91E22CA9-AFBC-4AFA-AE04-A161C30D883E}" name="Ejemplo" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{61C11600-F1F2-449B-A01F-C991A2FFEA92}" name="Ejercicio propuesto" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{DF8E3EAF-D2F1-4ACE-B23D-A0F965D558E4}" name="Ir" dataDxfId="6" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="1" xr3:uid="{57EEEC9D-4BFB-4C45-BD7E-25F9F8196C8D}" name="Fórmula" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{F916450D-8189-4770-B818-6EE2A1E90428}" name="Descripción" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{91E22CA9-AFBC-4AFA-AE04-A161C30D883E}" name="Ejemplo" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{61C11600-F1F2-449B-A01F-C991A2FFEA92}" name="Ejercicio propuesto" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{DF8E3EAF-D2F1-4ACE-B23D-A0F965D558E4}" name="Ir" dataDxfId="31" dataCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1911,86 +1911,86 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FB197277-C30D-4853-9D40-95379E854EB5}" name="Tabla2" displayName="Tabla2" ref="A3:C8" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FB197277-C30D-4853-9D40-95379E854EB5}" name="Tabla2" displayName="Tabla2" ref="A3:C8" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A3:C8" xr:uid="{FB197277-C30D-4853-9D40-95379E854EB5}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{22C6931E-4AC1-449E-B9FD-20CD66B97EF3}" name="Nombre" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{7E9E54F0-D2D2-426C-9516-72C8C4339A3E}" name="Edad" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{D59C59D4-0123-4B3D-9CC7-269C87B68C05}" name="Clasificacion" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{22C6931E-4AC1-449E-B9FD-20CD66B97EF3}" name="Nombre" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{7E9E54F0-D2D2-426C-9516-72C8C4339A3E}" name="Edad" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{D59C59D4-0123-4B3D-9CC7-269C87B68C05}" name="Clasificacion" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C4804A71-EA1A-4DEC-BE76-41E234DAB395}" name="Tabla3" displayName="Tabla3" ref="A15:C20" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C4804A71-EA1A-4DEC-BE76-41E234DAB395}" name="Tabla3" displayName="Tabla3" ref="A15:C20" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A15:C20" xr:uid="{C4804A71-EA1A-4DEC-BE76-41E234DAB395}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F062BCBD-E005-4790-A922-03F6DBAC65D4}" name="Nombre" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{7C4E4025-BF0E-4BA7-A89A-138C5551A879}" name="Edad" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{AF8AC246-6BC8-4FC8-B9AE-B867A86E12F2}" name="Clasificacion" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{F062BCBD-E005-4790-A922-03F6DBAC65D4}" name="Nombre" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{7C4E4025-BF0E-4BA7-A89A-138C5551A879}" name="Edad" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{AF8AC246-6BC8-4FC8-B9AE-B867A86E12F2}" name="Clasificacion" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BE10FD15-9EAD-41BF-B185-E4A273C3A9AB}" name="Tabla4" displayName="Tabla4" ref="A27:A33" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BE10FD15-9EAD-41BF-B185-E4A273C3A9AB}" name="Tabla4" displayName="Tabla4" ref="A27:A33" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A27:A33" xr:uid="{BE10FD15-9EAD-41BF-B185-E4A273C3A9AB}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CE3E4F7F-565A-4D08-8CA1-63DBE173E78F}" name="Calificación" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{CE3E4F7F-565A-4D08-8CA1-63DBE173E78F}" name="Calificación" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A7479B7C-45BA-4020-96FE-7A8E5723282E}" name="Tabla5" displayName="Tabla5" ref="A40:B45" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A7479B7C-45BA-4020-96FE-7A8E5723282E}" name="Tabla5" displayName="Tabla5" ref="A40:B45" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A40:B45" xr:uid="{A7479B7C-45BA-4020-96FE-7A8E5723282E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F84FF27B-F1E6-4C66-AE33-E4A1D2D56C16}" name="Nombre" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{6B694B88-EA5A-475B-B078-47C93B617A14}" name="Estado" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{F84FF27B-F1E6-4C66-AE33-E4A1D2D56C16}" name="Nombre" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{6B694B88-EA5A-475B-B078-47C93B617A14}" name="Estado" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{79C486DC-B85F-4E3F-BE31-DE0FBF09C495}" name="Tabla6" displayName="Tabla6" ref="A52:C57" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{79C486DC-B85F-4E3F-BE31-DE0FBF09C495}" name="Tabla6" displayName="Tabla6" ref="A52:C57" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A52:C57" xr:uid="{79C486DC-B85F-4E3F-BE31-DE0FBF09C495}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AE379C3C-377B-423D-8F89-D38150A13CED}" name="Nombre" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{789CB6A3-70B9-4769-A7C5-8D47E2236BC2}" name="Puntaje" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{2995EB50-7E94-4770-B748-49BB13938938}" name="Estado" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{AE379C3C-377B-423D-8F89-D38150A13CED}" name="Nombre" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{789CB6A3-70B9-4769-A7C5-8D47E2236BC2}" name="Puntaje" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2995EB50-7E94-4770-B748-49BB13938938}" name="Estado" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E461AFC4-6725-4193-917F-B77FADFB1BD9}" name="Tabla14" displayName="Tabla14" ref="A64:A70" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E461AFC4-6725-4193-917F-B77FADFB1BD9}" name="Tabla14" displayName="Tabla14" ref="A64:A70" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A64:A70" xr:uid="{E461AFC4-6725-4193-917F-B77FADFB1BD9}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{3BED299D-C663-412F-A629-97DCA42DF1C5}" name="Asistencia" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{3BED299D-C663-412F-A629-97DCA42DF1C5}" name="Asistencia" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2349,7 +2349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE082BF-5915-4C4A-9932-B0444EE05789}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2501,7 +2501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD536257-F3BE-4F48-BA2B-409073781382}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
@@ -3111,8 +3111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7967EA-D60F-411F-975E-EE77C29DD1E4}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/BASE_DE_DATOS - TAREAS/01 Hoja de Ejercicios de Formulas.xlsx
+++ b/BASE_DE_DATOS - TAREAS/01 Hoja de Ejercicios de Formulas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29515"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raúl\OneDrive\Escritorio\VARIOS\DIGITAL-DEPORTIVO\curso-Excel-Python-IA\BASE_DE_DATOS - TAREAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7987A51-B83A-49FC-AAFA-2C006DACFF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C4458A-4BB3-4AAC-B077-37871FE1E889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3648F167-93D0-41CA-A59A-EFE62C714478}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3648F167-93D0-41CA-A59A-EFE62C714478}"/>
   </bookViews>
   <sheets>
     <sheet name="FORMULAS LOGICAS" sheetId="1" r:id="rId1"/>
@@ -2349,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE082BF-5915-4C4A-9932-B0444EE05789}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2501,7 +2501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD536257-F3BE-4F48-BA2B-409073781382}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
@@ -3112,7 +3112,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
